--- a/biology/Zoologie/Berger_belge_Laekenois/Berger_belge_Laekenois.xlsx
+++ b/biology/Zoologie/Berger_belge_Laekenois/Berger_belge_Laekenois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Laekenois est une variété de la race Berger Belge reconnue en Belgique en 1897. Ce chien est considéré comme le plus rare des bergers belges et il n'est toujours pas largement reconnu hors de son pays d'origine. Le berceau de la race se situe à Boom, près d'Anvers. Les autres représentants du Berger belge sont : le Groenendael, le Malinois et le Tervuren.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle peut mesurer jusqu'à 66 cm au garrot et la femelle environ 58 cm au garrot.
 Il pèse environ 30 kg.
@@ -547,7 +561,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vif, éveillé, obéissant et très fidèle. Il est courageux, docile et intelligent. Il ressemble très peu aux autres bergers belges (le tervueren, le malinois et le gronendael).
 </t>
@@ -578,7 +594,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un chien de berger et de bouvier mais il a aussi servi à garder le lin mis à blanchir au soleil. Aujourd'hui il est chien d'utilité (pistage, garde, etc.) mais aussi chien de famille.
 </t>
@@ -609,7 +627,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était le favori de la reine Marie-Henriette de Belgique. Il a été nommé d'après le château de Laeken à Bruxelles.
 </t>
@@ -640,7 +660,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Alderton David (2002) Chiens. Bordas.
 </t>
@@ -671,7 +693,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le Berger Belge Laekenois
 Les standards du chien de berger belge
